--- a/Final Project - Final Version/SpreadSheets/playerData.xlsx
+++ b/Final Project - Final Version/SpreadSheets/playerData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hanoi Jones</t>
+          <t>Player 2</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saoirse</t>
+          <t>Player 1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -555,138 +555,6 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HXR-45</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18</v>
-      </c>
-      <c r="G4" t="n">
-        <v>52</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Caszire</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Gwen</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Keely</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
